--- a/Base/Backlog_32.xlsx
+++ b/Base/Backlog_32.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC2A644-E474-436C-8299-7A0FB66D6132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D11841-A239-430F-95EF-8C60963925C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="273" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="273" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="ITI" sheetId="2" r:id="rId1"/>
@@ -127,10 +127,10 @@
     <t>Fabio da Silva</t>
   </si>
   <si>
-    <t>Higor Jesus</t>
-  </si>
-  <si>
     <t>Luana Giese</t>
+  </si>
+  <si>
+    <t>Higor Cruz</t>
   </si>
 </sst>
 </file>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1868,8 +1868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2033,7 +2033,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="18">
         <v>2025</v>
@@ -2068,7 +2068,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="18">
         <v>2025</v>
@@ -2103,7 +2103,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="18">
         <v>2025</v>

--- a/Base/Backlog_32.xlsx
+++ b/Base/Backlog_32.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D11841-A239-430F-95EF-8C60963925C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E16F9B-C8BA-4056-AC1C-5C0D0270C8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="273" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="273" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="ITI" sheetId="2" r:id="rId1"/>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1868,7 +1868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>

--- a/Base/Backlog_32.xlsx
+++ b/Base/Backlog_32.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E16F9B-C8BA-4056-AC1C-5C0D0270C8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4276DA-2F3E-47BD-9965-E1AA1BFA0E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="273" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="273" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="ITI" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="31">
   <si>
     <t>Backlog</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Higor Cruz</t>
+  </si>
+  <si>
+    <t>Resolvido</t>
   </si>
 </sst>
 </file>
@@ -180,7 +183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +193,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -283,15 +292,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -615,10 +628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F12"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -672,948 +686,948 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="21">
-        <v>2025</v>
-      </c>
-      <c r="D2" s="21">
-        <v>32</v>
-      </c>
-      <c r="E2" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F2" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G2" s="21">
+      <c r="C2" s="23">
+        <v>2025</v>
+      </c>
+      <c r="D2" s="23">
+        <v>32</v>
+      </c>
+      <c r="E2" s="24">
+        <v>45880</v>
+      </c>
+      <c r="F2" s="24">
+        <v>45884</v>
+      </c>
+      <c r="G2" s="23">
         <v>342710</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="25">
         <v>45870</v>
       </c>
-      <c r="I2" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="24">
+        <v>45880</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="23">
+        <v>2025</v>
+      </c>
+      <c r="D3" s="23">
+        <v>32</v>
+      </c>
+      <c r="E3" s="24">
+        <v>45880</v>
+      </c>
+      <c r="F3" s="24">
+        <v>45884</v>
+      </c>
+      <c r="G3" s="23">
+        <v>341994</v>
+      </c>
+      <c r="H3" s="25">
+        <v>45839</v>
+      </c>
+      <c r="I3" s="24">
+        <v>45880</v>
+      </c>
+      <c r="J3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="21">
-        <v>2025</v>
-      </c>
-      <c r="D3" s="21">
-        <v>32</v>
-      </c>
-      <c r="E3" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F3" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G3" s="21">
-        <v>341994</v>
-      </c>
-      <c r="H3" s="23">
+      <c r="K3" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="23">
+        <v>2025</v>
+      </c>
+      <c r="D4" s="23">
+        <v>32</v>
+      </c>
+      <c r="E4" s="24">
+        <v>45880</v>
+      </c>
+      <c r="F4" s="24">
+        <v>45884</v>
+      </c>
+      <c r="G4" s="23">
+        <v>342739</v>
+      </c>
+      <c r="H4" s="25">
+        <v>45870</v>
+      </c>
+      <c r="I4" s="24">
+        <v>45880</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="23">
+        <v>2025</v>
+      </c>
+      <c r="D5" s="23">
+        <v>32</v>
+      </c>
+      <c r="E5" s="24">
+        <v>45880</v>
+      </c>
+      <c r="F5" s="24">
+        <v>45884</v>
+      </c>
+      <c r="G5" s="23">
+        <v>343418</v>
+      </c>
+      <c r="H5" s="25">
+        <v>45870</v>
+      </c>
+      <c r="I5" s="24">
+        <v>45880</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="23">
+        <v>2025</v>
+      </c>
+      <c r="D6" s="23">
+        <v>32</v>
+      </c>
+      <c r="E6" s="24">
+        <v>45880</v>
+      </c>
+      <c r="F6" s="24">
+        <v>45884</v>
+      </c>
+      <c r="G6" s="23">
+        <v>340432</v>
+      </c>
+      <c r="H6" s="25">
         <v>45839</v>
       </c>
-      <c r="I3" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J3" s="21" t="s">
+      <c r="I6" s="24">
+        <v>45880</v>
+      </c>
+      <c r="J6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="21">
-        <v>2025</v>
-      </c>
-      <c r="D4" s="21">
-        <v>32</v>
-      </c>
-      <c r="E4" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F4" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G4" s="21">
-        <v>342739</v>
-      </c>
-      <c r="H4" s="23">
+      <c r="K6" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="23">
+        <v>2025</v>
+      </c>
+      <c r="D7" s="23">
+        <v>32</v>
+      </c>
+      <c r="E7" s="24">
+        <v>45880</v>
+      </c>
+      <c r="F7" s="24">
+        <v>45884</v>
+      </c>
+      <c r="G7" s="23">
+        <v>343106</v>
+      </c>
+      <c r="H7" s="25">
         <v>45870</v>
       </c>
-      <c r="I4" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J4" s="21" t="s">
+      <c r="I7" s="24">
+        <v>45880</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="23">
+        <v>2025</v>
+      </c>
+      <c r="D8" s="23">
+        <v>32</v>
+      </c>
+      <c r="E8" s="24">
+        <v>45880</v>
+      </c>
+      <c r="F8" s="24">
+        <v>45884</v>
+      </c>
+      <c r="G8" s="23">
+        <v>343266</v>
+      </c>
+      <c r="H8" s="25">
+        <v>45870</v>
+      </c>
+      <c r="I8" s="24">
+        <v>45880</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="23">
+        <v>2025</v>
+      </c>
+      <c r="D9" s="23">
+        <v>32</v>
+      </c>
+      <c r="E9" s="24">
+        <v>45880</v>
+      </c>
+      <c r="F9" s="24">
+        <v>45884</v>
+      </c>
+      <c r="G9" s="23">
+        <v>342730</v>
+      </c>
+      <c r="H9" s="25">
+        <v>45870</v>
+      </c>
+      <c r="I9" s="24">
+        <v>45880</v>
+      </c>
+      <c r="J9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="21">
-        <v>2025</v>
-      </c>
-      <c r="D5" s="21">
-        <v>32</v>
-      </c>
-      <c r="E5" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F5" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G5" s="21">
-        <v>343418</v>
-      </c>
-      <c r="H5" s="23">
+      <c r="K9" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="23">
+        <v>2025</v>
+      </c>
+      <c r="D10" s="23">
+        <v>32</v>
+      </c>
+      <c r="E10" s="24">
+        <v>45880</v>
+      </c>
+      <c r="F10" s="24">
+        <v>45884</v>
+      </c>
+      <c r="G10" s="23">
+        <v>342874</v>
+      </c>
+      <c r="H10" s="25">
         <v>45870</v>
       </c>
-      <c r="I5" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J5" s="21" t="s">
+      <c r="I10" s="24">
+        <v>45880</v>
+      </c>
+      <c r="J10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="21">
-        <v>2025</v>
-      </c>
-      <c r="D6" s="21">
-        <v>32</v>
-      </c>
-      <c r="E6" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F6" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G6" s="21">
-        <v>340432</v>
-      </c>
-      <c r="H6" s="23">
+      <c r="K10" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="23">
+        <v>2025</v>
+      </c>
+      <c r="D11" s="23">
+        <v>32</v>
+      </c>
+      <c r="E11" s="24">
+        <v>45880</v>
+      </c>
+      <c r="F11" s="24">
+        <v>45884</v>
+      </c>
+      <c r="G11" s="23">
+        <v>343315</v>
+      </c>
+      <c r="H11" s="25">
+        <v>45870</v>
+      </c>
+      <c r="I11" s="24">
+        <v>45880</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="23">
+        <v>2025</v>
+      </c>
+      <c r="D12" s="23">
+        <v>32</v>
+      </c>
+      <c r="E12" s="24">
+        <v>45880</v>
+      </c>
+      <c r="F12" s="24">
+        <v>45884</v>
+      </c>
+      <c r="G12" s="23">
+        <v>343304</v>
+      </c>
+      <c r="H12" s="25">
+        <v>45870</v>
+      </c>
+      <c r="I12" s="24">
+        <v>45880</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="23">
+        <v>2025</v>
+      </c>
+      <c r="D13" s="23">
+        <v>32</v>
+      </c>
+      <c r="E13" s="24">
+        <v>45880</v>
+      </c>
+      <c r="F13" s="24">
+        <v>45884</v>
+      </c>
+      <c r="G13" s="23">
+        <v>339644</v>
+      </c>
+      <c r="H13" s="25">
         <v>45839</v>
       </c>
-      <c r="I6" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J6" s="21" t="s">
+      <c r="I13" s="24">
+        <v>45880</v>
+      </c>
+      <c r="J13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="21">
-        <v>2025</v>
-      </c>
-      <c r="D7" s="21">
-        <v>32</v>
-      </c>
-      <c r="E7" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F7" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G7" s="21">
-        <v>343106</v>
-      </c>
-      <c r="H7" s="23">
+      <c r="K13" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="23">
+        <v>2025</v>
+      </c>
+      <c r="D14" s="23">
+        <v>32</v>
+      </c>
+      <c r="E14" s="24">
+        <v>45880</v>
+      </c>
+      <c r="F14" s="24">
+        <v>45884</v>
+      </c>
+      <c r="G14" s="23">
+        <v>341470</v>
+      </c>
+      <c r="H14" s="25">
+        <v>45839</v>
+      </c>
+      <c r="I14" s="24">
+        <v>45880</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="23">
+        <v>2025</v>
+      </c>
+      <c r="D15" s="23">
+        <v>32</v>
+      </c>
+      <c r="E15" s="24">
+        <v>45880</v>
+      </c>
+      <c r="F15" s="24">
+        <v>45884</v>
+      </c>
+      <c r="G15" s="23">
+        <v>339469</v>
+      </c>
+      <c r="H15" s="25">
+        <v>45809</v>
+      </c>
+      <c r="I15" s="24">
+        <v>45880</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="23">
+        <v>2025</v>
+      </c>
+      <c r="D16" s="23">
+        <v>32</v>
+      </c>
+      <c r="E16" s="24">
+        <v>45880</v>
+      </c>
+      <c r="F16" s="24">
+        <v>45884</v>
+      </c>
+      <c r="G16" s="23">
+        <v>343006</v>
+      </c>
+      <c r="H16" s="25">
         <v>45870</v>
       </c>
-      <c r="I7" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J7" s="21" t="s">
+      <c r="I16" s="24">
+        <v>45880</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="23">
+        <v>2025</v>
+      </c>
+      <c r="D17" s="23">
+        <v>32</v>
+      </c>
+      <c r="E17" s="24">
+        <v>45880</v>
+      </c>
+      <c r="F17" s="24">
+        <v>45884</v>
+      </c>
+      <c r="G17" s="23">
+        <v>343239</v>
+      </c>
+      <c r="H17" s="25">
+        <v>45870</v>
+      </c>
+      <c r="I17" s="24">
+        <v>45880</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="23">
+        <v>2025</v>
+      </c>
+      <c r="D18" s="23">
+        <v>32</v>
+      </c>
+      <c r="E18" s="24">
+        <v>45880</v>
+      </c>
+      <c r="F18" s="24">
+        <v>45884</v>
+      </c>
+      <c r="G18" s="23">
+        <v>342619</v>
+      </c>
+      <c r="H18" s="25">
+        <v>45870</v>
+      </c>
+      <c r="I18" s="24">
+        <v>45880</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="23">
+        <v>2025</v>
+      </c>
+      <c r="D19" s="23">
+        <v>32</v>
+      </c>
+      <c r="E19" s="24">
+        <v>45880</v>
+      </c>
+      <c r="F19" s="24">
+        <v>45884</v>
+      </c>
+      <c r="G19" s="23">
+        <v>343312</v>
+      </c>
+      <c r="H19" s="25">
+        <v>45870</v>
+      </c>
+      <c r="I19" s="24">
+        <v>45880</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="23">
+        <v>2025</v>
+      </c>
+      <c r="D20" s="23">
+        <v>32</v>
+      </c>
+      <c r="E20" s="24">
+        <v>45880</v>
+      </c>
+      <c r="F20" s="24">
+        <v>45884</v>
+      </c>
+      <c r="G20" s="23">
+        <v>343313</v>
+      </c>
+      <c r="H20" s="25">
+        <v>45870</v>
+      </c>
+      <c r="I20" s="24">
+        <v>45880</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="23">
+        <v>2025</v>
+      </c>
+      <c r="D21" s="23">
+        <v>32</v>
+      </c>
+      <c r="E21" s="24">
+        <v>45880</v>
+      </c>
+      <c r="F21" s="24">
+        <v>45884</v>
+      </c>
+      <c r="G21" s="23">
+        <v>342831</v>
+      </c>
+      <c r="H21" s="25">
+        <v>45870</v>
+      </c>
+      <c r="I21" s="24">
+        <v>45880</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="23">
+        <v>2025</v>
+      </c>
+      <c r="D22" s="23">
+        <v>32</v>
+      </c>
+      <c r="E22" s="24">
+        <v>45880</v>
+      </c>
+      <c r="F22" s="24">
+        <v>45884</v>
+      </c>
+      <c r="G22" s="23">
+        <v>342958</v>
+      </c>
+      <c r="H22" s="25">
+        <v>45870</v>
+      </c>
+      <c r="I22" s="24">
+        <v>45880</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="23">
+        <v>2025</v>
+      </c>
+      <c r="D23" s="23">
+        <v>32</v>
+      </c>
+      <c r="E23" s="24">
+        <v>45880</v>
+      </c>
+      <c r="F23" s="24">
+        <v>45884</v>
+      </c>
+      <c r="G23" s="23">
+        <v>341731</v>
+      </c>
+      <c r="H23" s="25">
+        <v>45839</v>
+      </c>
+      <c r="I23" s="24">
+        <v>45880</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="23">
+        <v>2025</v>
+      </c>
+      <c r="D24" s="23">
+        <v>32</v>
+      </c>
+      <c r="E24" s="24">
+        <v>45880</v>
+      </c>
+      <c r="F24" s="24">
+        <v>45884</v>
+      </c>
+      <c r="G24" s="23">
+        <v>342135</v>
+      </c>
+      <c r="H24" s="25">
+        <v>45839</v>
+      </c>
+      <c r="I24" s="24">
+        <v>45880</v>
+      </c>
+      <c r="J24" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="21">
-        <v>2025</v>
-      </c>
-      <c r="D8" s="21">
-        <v>32</v>
-      </c>
-      <c r="E8" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F8" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G8" s="21">
-        <v>343266</v>
-      </c>
-      <c r="H8" s="23">
+      <c r="K24" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="23">
+        <v>2025</v>
+      </c>
+      <c r="D25" s="23">
+        <v>32</v>
+      </c>
+      <c r="E25" s="24">
+        <v>45880</v>
+      </c>
+      <c r="F25" s="24">
+        <v>45884</v>
+      </c>
+      <c r="G25" s="23">
+        <v>342914</v>
+      </c>
+      <c r="H25" s="25">
         <v>45870</v>
       </c>
-      <c r="I8" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J8" s="21" t="s">
+      <c r="I25" s="24">
+        <v>45880</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="23">
+        <v>2025</v>
+      </c>
+      <c r="D26" s="23">
+        <v>32</v>
+      </c>
+      <c r="E26" s="24">
+        <v>45880</v>
+      </c>
+      <c r="F26" s="24">
+        <v>45884</v>
+      </c>
+      <c r="G26" s="23">
+        <v>342670</v>
+      </c>
+      <c r="H26" s="25">
+        <v>45870</v>
+      </c>
+      <c r="I26" s="24">
+        <v>45880</v>
+      </c>
+      <c r="J26" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="21">
-        <v>2025</v>
-      </c>
-      <c r="D9" s="21">
-        <v>32</v>
-      </c>
-      <c r="E9" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F9" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G9" s="21">
-        <v>342730</v>
-      </c>
-      <c r="H9" s="23">
-        <v>45870</v>
-      </c>
-      <c r="I9" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J9" s="21" t="s">
+      <c r="K26" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="23">
+        <v>2025</v>
+      </c>
+      <c r="D27" s="23">
+        <v>32</v>
+      </c>
+      <c r="E27" s="24">
+        <v>45880</v>
+      </c>
+      <c r="F27" s="24">
+        <v>45884</v>
+      </c>
+      <c r="G27" s="23">
+        <v>342006</v>
+      </c>
+      <c r="H27" s="25">
+        <v>45839</v>
+      </c>
+      <c r="I27" s="24">
+        <v>45880</v>
+      </c>
+      <c r="J27" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="21">
-        <v>2025</v>
-      </c>
-      <c r="D10" s="21">
-        <v>32</v>
-      </c>
-      <c r="E10" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F10" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G10" s="21">
-        <v>342874</v>
-      </c>
-      <c r="H10" s="23">
-        <v>45870</v>
-      </c>
-      <c r="I10" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J10" s="21" t="s">
+      <c r="K27" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="23">
+        <v>2025</v>
+      </c>
+      <c r="D28" s="23">
+        <v>32</v>
+      </c>
+      <c r="E28" s="24">
+        <v>45880</v>
+      </c>
+      <c r="F28" s="24">
+        <v>45884</v>
+      </c>
+      <c r="G28" s="23">
+        <v>340589</v>
+      </c>
+      <c r="H28" s="25">
+        <v>45839</v>
+      </c>
+      <c r="I28" s="24">
+        <v>45880</v>
+      </c>
+      <c r="J28" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="21">
-        <v>2025</v>
-      </c>
-      <c r="D11" s="21">
-        <v>32</v>
-      </c>
-      <c r="E11" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F11" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G11" s="21">
-        <v>343315</v>
-      </c>
-      <c r="H11" s="23">
-        <v>45870</v>
-      </c>
-      <c r="I11" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="21">
-        <v>2025</v>
-      </c>
-      <c r="D12" s="21">
-        <v>32</v>
-      </c>
-      <c r="E12" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F12" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G12" s="21">
-        <v>343304</v>
-      </c>
-      <c r="H12" s="23">
-        <v>45870</v>
-      </c>
-      <c r="I12" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="21">
-        <v>2025</v>
-      </c>
-      <c r="D13" s="21">
-        <v>32</v>
-      </c>
-      <c r="E13" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F13" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G13" s="21">
-        <v>339644</v>
-      </c>
-      <c r="H13" s="23">
-        <v>45839</v>
-      </c>
-      <c r="I13" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="21">
-        <v>2025</v>
-      </c>
-      <c r="D14" s="21">
-        <v>32</v>
-      </c>
-      <c r="E14" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F14" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G14" s="21">
-        <v>341470</v>
-      </c>
-      <c r="H14" s="23">
-        <v>45839</v>
-      </c>
-      <c r="I14" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="21">
-        <v>2025</v>
-      </c>
-      <c r="D15" s="21">
-        <v>32</v>
-      </c>
-      <c r="E15" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F15" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G15" s="21">
-        <v>339469</v>
-      </c>
-      <c r="H15" s="23">
-        <v>45809</v>
-      </c>
-      <c r="I15" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="21">
-        <v>2025</v>
-      </c>
-      <c r="D16" s="21">
-        <v>32</v>
-      </c>
-      <c r="E16" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F16" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G16" s="21">
-        <v>343006</v>
-      </c>
-      <c r="H16" s="23">
-        <v>45870</v>
-      </c>
-      <c r="I16" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="21">
-        <v>2025</v>
-      </c>
-      <c r="D17" s="21">
-        <v>32</v>
-      </c>
-      <c r="E17" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F17" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G17" s="21">
-        <v>343239</v>
-      </c>
-      <c r="H17" s="23">
-        <v>45870</v>
-      </c>
-      <c r="I17" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="21">
-        <v>2025</v>
-      </c>
-      <c r="D18" s="21">
-        <v>32</v>
-      </c>
-      <c r="E18" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F18" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G18" s="21">
-        <v>342619</v>
-      </c>
-      <c r="H18" s="23">
-        <v>45870</v>
-      </c>
-      <c r="I18" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="21">
-        <v>2025</v>
-      </c>
-      <c r="D19" s="21">
-        <v>32</v>
-      </c>
-      <c r="E19" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F19" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G19" s="21">
-        <v>343312</v>
-      </c>
-      <c r="H19" s="23">
-        <v>45870</v>
-      </c>
-      <c r="I19" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J19" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="21">
-        <v>2025</v>
-      </c>
-      <c r="D20" s="21">
-        <v>32</v>
-      </c>
-      <c r="E20" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F20" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G20" s="21">
-        <v>343313</v>
-      </c>
-      <c r="H20" s="23">
-        <v>45870</v>
-      </c>
-      <c r="I20" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J20" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="21">
-        <v>2025</v>
-      </c>
-      <c r="D21" s="21">
-        <v>32</v>
-      </c>
-      <c r="E21" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F21" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G21" s="21">
-        <v>342831</v>
-      </c>
-      <c r="H21" s="23">
-        <v>45870</v>
-      </c>
-      <c r="I21" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J21" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="21">
-        <v>2025</v>
-      </c>
-      <c r="D22" s="21">
-        <v>32</v>
-      </c>
-      <c r="E22" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F22" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G22" s="21">
-        <v>342958</v>
-      </c>
-      <c r="H22" s="23">
-        <v>45870</v>
-      </c>
-      <c r="I22" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="21">
-        <v>2025</v>
-      </c>
-      <c r="D23" s="21">
-        <v>32</v>
-      </c>
-      <c r="E23" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F23" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G23" s="21">
-        <v>341731</v>
-      </c>
-      <c r="H23" s="23">
-        <v>45839</v>
-      </c>
-      <c r="I23" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="21">
-        <v>2025</v>
-      </c>
-      <c r="D24" s="21">
-        <v>32</v>
-      </c>
-      <c r="E24" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F24" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G24" s="21">
-        <v>342135</v>
-      </c>
-      <c r="H24" s="23">
-        <v>45839</v>
-      </c>
-      <c r="I24" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="21">
-        <v>2025</v>
-      </c>
-      <c r="D25" s="21">
-        <v>32</v>
-      </c>
-      <c r="E25" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F25" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G25" s="21">
-        <v>342914</v>
-      </c>
-      <c r="H25" s="23">
-        <v>45870</v>
-      </c>
-      <c r="I25" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J25" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="21">
-        <v>2025</v>
-      </c>
-      <c r="D26" s="21">
-        <v>32</v>
-      </c>
-      <c r="E26" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F26" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G26" s="21">
-        <v>342670</v>
-      </c>
-      <c r="H26" s="23">
-        <v>45870</v>
-      </c>
-      <c r="I26" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="K26" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="21">
-        <v>2025</v>
-      </c>
-      <c r="D27" s="21">
-        <v>32</v>
-      </c>
-      <c r="E27" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F27" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G27" s="21">
-        <v>342006</v>
-      </c>
-      <c r="H27" s="23">
-        <v>45839</v>
-      </c>
-      <c r="I27" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="K27" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="21">
-        <v>2025</v>
-      </c>
-      <c r="D28" s="21">
-        <v>32</v>
-      </c>
-      <c r="E28" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F28" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G28" s="21">
-        <v>340589</v>
-      </c>
-      <c r="H28" s="23">
-        <v>45839</v>
-      </c>
-      <c r="I28" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J28" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="K28" s="21" t="s">
+      <c r="K28" s="23" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1857,7 +1871,18 @@
       <c r="I67" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K28" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}"/>
+  <autoFilter ref="A1:K28" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
+    <filterColumn colId="7">
+      <filters>
+        <dateGroupItem year="2025" month="7" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="Pendente"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1868,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1923,213 +1948,213 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="18">
-        <v>2025</v>
-      </c>
-      <c r="D2" s="18">
-        <v>32</v>
-      </c>
-      <c r="E2" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F2" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G2" s="18">
+      <c r="C2" s="19">
+        <v>2025</v>
+      </c>
+      <c r="D2" s="19">
+        <v>32</v>
+      </c>
+      <c r="E2" s="18">
+        <v>45880</v>
+      </c>
+      <c r="F2" s="18">
+        <v>45884</v>
+      </c>
+      <c r="G2" s="19">
         <v>342579</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="20">
         <v>45870</v>
       </c>
-      <c r="I2" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="18" t="s">
+      <c r="I2" s="18">
+        <v>45880</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="18">
-        <v>2025</v>
-      </c>
-      <c r="D3" s="18">
-        <v>32</v>
-      </c>
-      <c r="E3" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F3" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G3" s="18">
+      <c r="C3" s="19">
+        <v>2025</v>
+      </c>
+      <c r="D3" s="19">
+        <v>32</v>
+      </c>
+      <c r="E3" s="18">
+        <v>45880</v>
+      </c>
+      <c r="F3" s="18">
+        <v>45884</v>
+      </c>
+      <c r="G3" s="19">
         <v>343271</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="20">
         <v>45870</v>
       </c>
-      <c r="I3" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="18" t="s">
+      <c r="I3" s="18">
+        <v>45880</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="18">
-        <v>2025</v>
-      </c>
-      <c r="D4" s="18">
-        <v>32</v>
-      </c>
-      <c r="E4" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F4" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G4" s="18">
+      <c r="C4" s="19">
+        <v>2025</v>
+      </c>
+      <c r="D4" s="19">
+        <v>32</v>
+      </c>
+      <c r="E4" s="18">
+        <v>45880</v>
+      </c>
+      <c r="F4" s="18">
+        <v>45884</v>
+      </c>
+      <c r="G4" s="19">
         <v>342380</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="20">
         <v>45870</v>
       </c>
-      <c r="I4" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="18" t="s">
+      <c r="I4" s="18">
+        <v>45880</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="18">
-        <v>2025</v>
-      </c>
-      <c r="D5" s="18">
-        <v>32</v>
-      </c>
-      <c r="E5" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F5" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G5" s="18">
+      <c r="C5" s="19">
+        <v>2025</v>
+      </c>
+      <c r="D5" s="19">
+        <v>32</v>
+      </c>
+      <c r="E5" s="18">
+        <v>45880</v>
+      </c>
+      <c r="F5" s="18">
+        <v>45884</v>
+      </c>
+      <c r="G5" s="19">
         <v>342846</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="20">
         <v>45870</v>
       </c>
-      <c r="I5" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="18" t="s">
+      <c r="I5" s="18">
+        <v>45880</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="18">
-        <v>2025</v>
-      </c>
-      <c r="D6" s="18">
-        <v>32</v>
-      </c>
-      <c r="E6" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F6" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G6" s="18">
+      <c r="C6" s="19">
+        <v>2025</v>
+      </c>
+      <c r="D6" s="19">
+        <v>32</v>
+      </c>
+      <c r="E6" s="18">
+        <v>45880</v>
+      </c>
+      <c r="F6" s="18">
+        <v>45884</v>
+      </c>
+      <c r="G6" s="19">
         <v>343420</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="20">
         <v>45870</v>
       </c>
-      <c r="I6" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="18" t="s">
+      <c r="I6" s="18">
+        <v>45880</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="18">
-        <v>2025</v>
-      </c>
-      <c r="D7" s="18">
-        <v>32</v>
-      </c>
-      <c r="E7" s="22">
-        <v>45880</v>
-      </c>
-      <c r="F7" s="22">
-        <v>45884</v>
-      </c>
-      <c r="G7" s="18">
+      <c r="C7" s="19">
+        <v>2025</v>
+      </c>
+      <c r="D7" s="19">
+        <v>32</v>
+      </c>
+      <c r="E7" s="18">
+        <v>45880</v>
+      </c>
+      <c r="F7" s="18">
+        <v>45884</v>
+      </c>
+      <c r="G7" s="19">
         <v>340361</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="20">
         <v>45870</v>
       </c>
-      <c r="I7" s="22">
-        <v>45880</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="18" t="s">
+      <c r="I7" s="18">
+        <v>45880</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="19" t="s">
         <v>15</v>
       </c>
     </row>
